--- a/result/with_base/124/arousal/s24_6.xlsx
+++ b/result/with_base/124/arousal/s24_6.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.800000011920929</v>
+        <v>0.8247767984867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41717.70703125</v>
+        <v>11297.02734375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8386363712224093</v>
+        <v>0.8222163880572599</v>
       </c>
       <c r="E2" t="n">
-        <v>41717.83274147727</v>
+        <v>11296.94226792279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8725000023841858</v>
+        <v>0.8364955484867096</v>
       </c>
       <c r="C3" t="n">
-        <v>40928.9296875</v>
+        <v>10991.18115234375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.884999995881861</v>
+        <v>0.8535320373142466</v>
       </c>
       <c r="E3" t="n">
-        <v>40928.05965909091</v>
+        <v>10990.19462316176</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9024999737739563</v>
+        <v>0.8577008843421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40146.77734375</v>
+        <v>10692.4091796875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9187499989162792</v>
+        <v>0.8559611334520227</v>
       </c>
       <c r="E4" t="n">
-        <v>40146.72088068182</v>
+        <v>10691.68359375</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.8828125</v>
       </c>
       <c r="C5" t="n">
-        <v>39378.17578125</v>
+        <v>10398.419921875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9310227307406339</v>
+        <v>0.8727022058823529</v>
       </c>
       <c r="E5" t="n">
-        <v>39377.66761363636</v>
+        <v>10398.03073299632</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C6" t="n">
-        <v>38623.94921875</v>
+        <v>10110.5517578125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9254545569419861</v>
+        <v>0.902901786215165</v>
       </c>
       <c r="E6" t="n">
-        <v>38621.44247159091</v>
+        <v>10109.38200827206</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.8822544515132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37877.779296875</v>
+        <v>9829.39404296875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.953977265141227</v>
+        <v>0.9136029411764706</v>
       </c>
       <c r="E7" t="n">
-        <v>37876.03302556818</v>
+        <v>9828.618278952206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.8816964328289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37146.251953125</v>
+        <v>9554.92529296875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9536363590847362</v>
+        <v>0.9203650215092827</v>
       </c>
       <c r="E8" t="n">
-        <v>37144.57208806818</v>
+        <v>9554.387465533087</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9200000166893005</v>
+        <v>0.9006696343421936</v>
       </c>
       <c r="C9" t="n">
-        <v>36427.0859375</v>
+        <v>9287.55078125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9577272642742504</v>
+        <v>0.9247636549613055</v>
       </c>
       <c r="E9" t="n">
-        <v>36425.38316761364</v>
+        <v>9286.795553768383</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C10" t="n">
-        <v>35722.5390625</v>
+        <v>9025.96044921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9463636333292181</v>
+        <v>0.9311318292337305</v>
       </c>
       <c r="E10" t="n">
-        <v>35720.09517045454</v>
+        <v>9025.335248161764</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C11" t="n">
-        <v>35028.12890625</v>
+        <v>8771.50830078125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.96318180994554</v>
+        <v>0.9342174354721519</v>
       </c>
       <c r="E11" t="n">
-        <v>35025.78551136364</v>
+        <v>8770.581399356617</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.925000011920929</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C12" t="n">
-        <v>34347.9921875</v>
+        <v>8522.75634765625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9677272818305276</v>
+        <v>0.9417673314318937</v>
       </c>
       <c r="E12" t="n">
-        <v>34345.15909090909</v>
+        <v>8522.063017003677</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33677.306640625</v>
+        <v>8280.48486328125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9737500060688365</v>
+        <v>0.9463629196671879</v>
       </c>
       <c r="E13" t="n">
-        <v>33676.26384943182</v>
+        <v>8279.766142003677</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9375</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C14" t="n">
-        <v>33022.4375</v>
+        <v>8045.072509765625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9656818183985624</v>
+        <v>0.9222689060603871</v>
       </c>
       <c r="E14" t="n">
-        <v>33020.31747159091</v>
+        <v>8044.222943474265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.90625</v>
       </c>
       <c r="C15" t="n">
-        <v>32377.177734375</v>
+        <v>7814.38671875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9754545526071028</v>
+        <v>0.9449842431965996</v>
       </c>
       <c r="E15" t="n">
-        <v>32375.70170454546</v>
+        <v>7813.688505284927</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9112723171710968</v>
       </c>
       <c r="C16" t="n">
-        <v>31745.177734375</v>
+        <v>7590.380126953125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9722727266224948</v>
+        <v>0.949645484195036</v>
       </c>
       <c r="E16" t="n">
-        <v>31743.52361505682</v>
+        <v>7589.672880284927</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31124.552734375</v>
+        <v>7371.91015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9792045571587302</v>
+        <v>0.9624474784907173</v>
       </c>
       <c r="E17" t="n">
-        <v>31122.67240767046</v>
+        <v>7371.202119715073</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30515.390625</v>
+        <v>7159.15869140625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9806818311864679</v>
+        <v>0.969012604040258</v>
       </c>
       <c r="E18" t="n">
-        <v>30513.51828835227</v>
+        <v>7158.4873046875</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C19" t="n">
-        <v>29917.3984375</v>
+        <v>6952.0185546875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9853409203616056</v>
+        <v>0.9692752115866717</v>
       </c>
       <c r="E19" t="n">
-        <v>29915.57262073864</v>
+        <v>6951.358340992647</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29329.8798828125</v>
+        <v>6750.2333984375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9877272844314575</v>
+        <v>0.9648109253715066</v>
       </c>
       <c r="E20" t="n">
-        <v>29328.693359375</v>
+        <v>6749.641343060662</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C21" t="n">
-        <v>28755.205078125</v>
+        <v>6553.90478515625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9772727381099354</v>
+        <v>0.9724921233513776</v>
       </c>
       <c r="E21" t="n">
-        <v>28753.03231534091</v>
+        <v>6553.179802389706</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9296875</v>
       </c>
       <c r="C22" t="n">
-        <v>28188.447265625</v>
+        <v>6362.459228515625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9789915961377761</v>
       </c>
       <c r="E22" t="n">
-        <v>28187.56995738636</v>
+        <v>6361.944450827206</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9140625</v>
       </c>
       <c r="C23" t="n">
-        <v>27634.3447265625</v>
+        <v>6176.409912109375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.984637604040258</v>
       </c>
       <c r="E23" t="n">
-        <v>27632.93519176136</v>
+        <v>6175.837919347427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9375</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27090.181640625</v>
+        <v>5995.367919921875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9763655452167287</v>
       </c>
       <c r="E24" t="n">
-        <v>27088.56693892046</v>
+        <v>5994.762666590073</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9296875</v>
       </c>
       <c r="C25" t="n">
-        <v>26555.58203125</v>
+        <v>5818.97119140625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9710477941176471</v>
       </c>
       <c r="E25" t="n">
-        <v>26554.31463068182</v>
+        <v>5818.470818014706</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C26" t="n">
-        <v>26031.017578125</v>
+        <v>5647.445068359375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9676995803328121</v>
       </c>
       <c r="E26" t="n">
-        <v>26030.09641335227</v>
+        <v>5646.90771484375</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25516.828125</v>
+        <v>5480.472900390625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.991136372089386</v>
+        <v>0.9793198529411765</v>
       </c>
       <c r="E27" t="n">
-        <v>25515.78284801136</v>
+        <v>5479.850471047794</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C28" t="n">
-        <v>25012.412109375</v>
+        <v>5317.7275390625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E28" t="n">
-        <v>25011.02325994318</v>
+        <v>5317.302073759191</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9079241156578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24517.1376953125</v>
+        <v>5160.0029296875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9431460079024819</v>
       </c>
       <c r="E29" t="n">
-        <v>24515.65181107954</v>
+        <v>5159.491526884191</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.8805803656578064</v>
       </c>
       <c r="C30" t="n">
-        <v>24030.9609375</v>
+        <v>5006.24560546875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9587710079024819</v>
       </c>
       <c r="E30" t="n">
-        <v>24029.61807528409</v>
+        <v>5005.606502757353</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C31" t="n">
-        <v>23553.412109375</v>
+        <v>4856.382080078125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E31" t="n">
-        <v>23552.64240056818</v>
+        <v>4855.938936121323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C32" t="n">
-        <v>23085.7548828125</v>
+        <v>4710.99169921875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.993977275761691</v>
+        <v>0.9631039920975181</v>
       </c>
       <c r="E32" t="n">
-        <v>23084.65110085227</v>
+        <v>4710.519646139706</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22626.296875</v>
+        <v>4569.3095703125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9709821413545048</v>
       </c>
       <c r="E33" t="n">
-        <v>22625.41512784091</v>
+        <v>4568.955796185662</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.92578125</v>
       </c>
       <c r="C34" t="n">
-        <v>22176.4072265625</v>
+        <v>4431.68212890625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9585084038622239</v>
       </c>
       <c r="E34" t="n">
-        <v>22174.90376420454</v>
+        <v>4431.327033547794</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C35" t="n">
-        <v>21733.51953125</v>
+        <v>4297.545166015625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9814863450386945</v>
       </c>
       <c r="E35" t="n">
-        <v>21732.77876420454</v>
+        <v>4297.318617876838</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.92578125</v>
       </c>
       <c r="C36" t="n">
-        <v>21300.2197265625</v>
+        <v>4167.4970703125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9893181865865533</v>
+        <v>0.9690782568034004</v>
       </c>
       <c r="E36" t="n">
-        <v>21299.08913352273</v>
+        <v>4167.1669921875</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9296875</v>
       </c>
       <c r="C37" t="n">
-        <v>20874.2421875</v>
+        <v>4040.859252929688</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.968618697979871</v>
       </c>
       <c r="E37" t="n">
-        <v>20873.42578125</v>
+        <v>4040.548009535846</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C38" t="n">
-        <v>20457.0625</v>
+        <v>3917.646484375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9826680667260114</v>
       </c>
       <c r="E38" t="n">
-        <v>20455.85475852273</v>
+        <v>3917.376191980698</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20047.0771484375</v>
+        <v>3798.063110351562</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9722951685681063</v>
       </c>
       <c r="E39" t="n">
-        <v>20046.12571022727</v>
+        <v>3797.721335018382</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19644.71484375</v>
+        <v>3681.605834960938</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9838497884133283</v>
       </c>
       <c r="E40" t="n">
-        <v>19644.12446732954</v>
+        <v>3681.320039636948</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9202008843421936</v>
       </c>
       <c r="C41" t="n">
-        <v>19250.6318359375</v>
+        <v>3568.791748046875</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9441307783126831</v>
       </c>
       <c r="E41" t="n">
-        <v>19249.72922585227</v>
+        <v>3568.441104664522</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C42" t="n">
-        <v>18863.314453125</v>
+        <v>3458.60888671875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9755777295897988</v>
       </c>
       <c r="E42" t="n">
-        <v>18862.73277698864</v>
+        <v>3458.280460133272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18483.4951171875</v>
+        <v>3351.63525390625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9644826685681063</v>
       </c>
       <c r="E43" t="n">
-        <v>18483.02219460227</v>
+        <v>3351.441434972427</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18111.244140625</v>
+        <v>3247.6845703125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9862132352941176</v>
       </c>
       <c r="E44" t="n">
-        <v>18110.50514914773</v>
+        <v>3247.486040900735</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17745.8681640625</v>
+        <v>3146.659057617188</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E45" t="n">
-        <v>17745.056640625</v>
+        <v>3146.492690142463</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94140625</v>
       </c>
       <c r="C46" t="n">
-        <v>17387.1953125</v>
+        <v>3048.685913085938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9671743687461404</v>
       </c>
       <c r="E46" t="n">
-        <v>17386.48029119318</v>
+        <v>3048.440573299632</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C47" t="n">
-        <v>17035.5009765625</v>
+        <v>2953.236694335938</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9854254196671879</v>
       </c>
       <c r="E47" t="n">
-        <v>17034.73721590909</v>
+        <v>2953.042566636029</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9430803656578064</v>
       </c>
       <c r="C48" t="n">
-        <v>16690.1962890625</v>
+        <v>2860.551391601562</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E48" t="n">
-        <v>16689.619140625</v>
+        <v>2860.384866153493</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9391741156578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16351.75146484375</v>
+        <v>2770.595581054688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E49" t="n">
-        <v>16351.05131392045</v>
+        <v>2770.379250919118</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C50" t="n">
-        <v>16019.501953125</v>
+        <v>2683.104248046875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9833902295897988</v>
       </c>
       <c r="E50" t="n">
-        <v>16018.90172230114</v>
+        <v>2682.916877297794</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,883 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15693.69580078125</v>
+        <v>2598.095947265625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9874606097445768</v>
       </c>
       <c r="E51" t="n">
-        <v>15693.08451704545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15373.95263671875</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15373.41654829545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15060.5361328125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15059.78844105114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14752.9404296875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14752.14284446023</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14450.78759765625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14450.34676846591</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14155.14892578125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14154.28480113636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13864.60546875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13863.85440340909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13579.45263671875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13578.96590909091</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13300.03515625</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13299.53151633523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13025.755859375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13025.39666193182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12756.94677734375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9961363673210144</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12756.52876420455</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12493.2490234375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12492.79456676136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12234.72705078125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12234.13405539773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11980.68310546875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11980.39266690341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11732.1103515625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11731.52379261364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11487.94287109375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11487.45303622159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11248.4990234375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11248.05681818182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11013.49755859375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11013.25266335227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10783.44677734375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10783.00852272727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10557.623046875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10557.17311789773</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10336.095703125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10335.70170454545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10118.98046875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9931818246841431</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10118.54794034091</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9905.8642578125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9905.545276988636</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9697.06787109375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9696.67959872159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9492.4150390625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9922727346420288</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9491.896129261364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9291.28515625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9291.039328835228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9094.3662109375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9094.100941051136</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9575000107288361</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8901.40869140625</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8901.002663352272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8711.93798828125</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8711.666725852272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8526.38037109375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9935227307406339</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8526.040660511364</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8344.37255859375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8344.017223011364</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5609756097560976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005025125628140704</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8292682926829268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03517587939698492</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8536585365853658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03517587939698492</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.09045226130653267</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.09045226130653267</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.135678391959799</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.135678391959799</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9851697511949994</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8341708542713567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8592964824120602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.864321608040201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8844221105527639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9095477386934674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9095477386934674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.964824120603015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.1463414634146341</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.964824120603015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1463414634146341</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9698492462311558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9698492462311558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1707317073170732</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.4390243902439024</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.4390243902439024</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9850471871552887</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2597.952320772059</v>
       </c>
     </row>
   </sheetData>
